--- a/data.xlsx
+++ b/data.xlsx
@@ -1,37 +1,80 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Repositories\breast.dearfad.com\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6271251B-C0A3-4DC7-A9F5-C04F89EA84A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-28920" yWindow="765" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>grade</t>
+  </si>
+  <si>
+    <t>major</t>
+  </si>
+  <si>
+    <t>starttime</t>
+  </si>
+  <si>
+    <t>endtime</t>
+  </si>
+  <si>
+    <t>无名</t>
+  </si>
+  <si>
+    <t>临床医学</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <name val="Calibri"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +89,44 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,37 +414,52 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="B1:D1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>grade</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>major</t>
-        </is>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>2016</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2">
+        <v>45481.909840459557</v>
+      </c>
+      <c r="E2" s="2">
+        <v>45481.910068199111</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -1,80 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Repositories\breast.dearfad.com\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6271251B-C0A3-4DC7-A9F5-C04F89EA84A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="765" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>grade</t>
-  </si>
-  <si>
-    <t>major</t>
-  </si>
-  <si>
-    <t>starttime</t>
-  </si>
-  <si>
-    <t>endtime</t>
-  </si>
-  <si>
-    <t>无名</t>
-  </si>
-  <si>
-    <t>临床医学</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -89,44 +49,94 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -414,52 +424,104 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>grade</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>major</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>starttime</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>endtime</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>chat</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2">
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>无名</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>2016</v>
       </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="2">
-        <v>45481.909840459557</v>
-      </c>
-      <c r="E2" s="2">
-        <v>45481.910068199111</v>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>临床医学</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>45482.89590103009</v>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>45482.8961319213</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>{'de2f24bd946e4c3fa80047d6877f557b': [Message(name='医生', role='user', content='你好', finish_reason=None, meta=None, function_call=None), Message(name='患者', role='assistant', content='大夫，你好', finish_reason=None, meta=None, function_call=None)], '5b90fa5b76f0425aab4413efd9d3c257': [Message(name='医生', role='user', content='你好', finish_reason=None, meta=None, function_call=None), Message(name='患者', role='assistant', content='大夫，你好', finish_reason=None, meta=None, function_call=None)], '37d0bb98a0194eefbecdba794fb1b42c': [Message(name='医生', role='user', content='你好', finish_reason=None, meta=None, function_call=None), Message(name='患者', role='assistant', content='大夫，你好', finish_reason=None, meta=None, function_call=None)]}</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>大头</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>2016</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>临床医学</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>45482.89756621942</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>45482.89777984604</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>{'de2f24bd946e4c3fa80047d6877f557b': [Message(name='医生', role='user', content='你好', finish_reason=None, meta=None, function_call=None), Message(name='患者', role='assistant', content='大夫，你好', finish_reason=None, meta=None, function_call=None)], '5b90fa5b76f0425aab4413efd9d3c257': [Message(name='医生', role='user', content='你好', finish_reason=None, meta=None, function_call=None), Message(name='患者', role='assistant', content='大夫，你好', finish_reason=None, meta=None, function_call=None)], '37d0bb98a0194eefbecdba794fb1b42c': [Message(name='医生', role='user', content='你好', finish_reason=None, meta=None, function_call=None), Message(name='患者', role='assistant', content='大夫，你好', finish_reason=None, meta=None, function_call=None)]}</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,7 +465,22 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>chat</t>
+          <t>chatlog</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>user_question</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>correct_answer</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>user_answer</t>
         </is>
       </c>
     </row>
@@ -484,21 +499,36 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45482.89590103009</v>
+        <v>45485.31567364583</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>45482.8961319213</v>
+        <v>45485.31591427083</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>{'de2f24bd946e4c3fa80047d6877f557b': [Message(name='医生', role='user', content='你好', finish_reason=None, meta=None, function_call=None), Message(name='患者', role='assistant', content='大夫，你好', finish_reason=None, meta=None, function_call=None)], '5b90fa5b76f0425aab4413efd9d3c257': [Message(name='医生', role='user', content='你好', finish_reason=None, meta=None, function_call=None), Message(name='患者', role='assistant', content='大夫，你好', finish_reason=None, meta=None, function_call=None)], '37d0bb98a0194eefbecdba794fb1b42c': [Message(name='医生', role='user', content='你好', finish_reason=None, meta=None, function_call=None), Message(name='患者', role='assistant', content='大夫，你好', finish_reason=None, meta=None, function_call=None)]}</t>
+          <t>{'de2f24bd946e4c3fa80047d6877f557b': None, '5b90fa5b76f0425aab4413efd9d3c257': None, '37d0bb98a0194eefbecdba794fb1b42c': None}</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>['大夫这是什么病啊', '这个病会死人么', '下一步该怎么治疗啊', '该病的诊断是什么', '下一步该怎么治疗', '高发的年龄段是什么', '初步诊断是什么', '此病的原因是什么', '治疗方法正确的是']</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>['乳腺增生', '会的', '药物治疗', '乳腺纤维腺瘤', '手术', '10-15岁', '乳腺炎', '细菌感染', '手术治疗']</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>['乳腺增生', '会的', '药物治疗', '乳腺纤维腺瘤', '手术', '10-15岁', '乳腺炎', '细菌感染', '手术治疗']</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>大头</t>
+          <t>无名</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -510,14 +540,152 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45482.89756621942</v>
+        <v>45485.31717747685</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>45482.89777984604</v>
+        <v>45485.31752623842</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
+          <t>{'de2f24bd946e4c3fa80047d6877f557b': None, '5b90fa5b76f0425aab4413efd9d3c257': None, '37d0bb98a0194eefbecdba794fb1b42c': None}</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>['大夫这是什么病啊', '这个病会死人么', '下一步该怎么治疗啊', '该病的诊断是什么', '下一步该怎么治疗', '高发的年龄段是什么', '初步诊断是什么', '此病的原因是什么', '治疗方法正确的是']</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>['乳腺增生', '会的', '药物治疗', '乳腺纤维腺瘤', '手术', '10-15岁', '乳腺炎', '细菌感染', '手术治疗']</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>['乳腺癌', '不知道', '药物治疗', '副乳腺', '局部按摩', '20-25岁', '乳腺炎', '细菌感染', '手术治疗']</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>无名</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>2016</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>临床医学</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>45485.32024743056</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>45485.32046550926</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>{'5b90fa5b76f0425aab4413efd9d3c257': [Message(name='医生', role='user', content='你好', finish_reason=None, meta=None, function_call=None), Message(name='患者', role='assistant', content='大夫，你好', finish_reason=None, meta=None, function_call=None), Message(name='医生', role='user', content='哪里不舒服？', finish_reason=None, meta=None, function_call=None), Message(name='患者', role='assistant', content='我右边乳房有个肿块，三天了。', finish_reason=None, meta=None, function_call=None)], 'de2f24bd946e4c3fa80047d6877f557b': [Message(name='医生', role='user', content='你好', finish_reason=None, meta=None, function_call=None), Message(name='患者', role='assistant', content='大夫，你好', finish_reason=None, meta=None, function_call=None)], '37d0bb98a0194eefbecdba794fb1b42c': [Message(name='医生', role='user', content='你好', finish_reason=None, meta=None, function_call=None), Message(name='患者', role='assistant', content='大夫，你好', finish_reason=None, meta=None, function_call=None)]}</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>['该病的诊断是什么', '下一步该怎么治疗', '高发的年龄段是什么', '大夫这是什么病啊', '这个病会死人么', '下一步该怎么治疗啊', '初步诊断是什么', '此病的原因是什么', '治疗方法正确的是']</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>['乳腺纤维腺瘤', '手术', '10-15岁', '乳腺增生', '会的', '药物治疗', '乳腺炎', '细菌感染', '手术治疗']</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>['乳腺纤维腺瘤', '手术', '10-15岁', '乳腺增生', '会的', '药物治疗', '乳腺炎', '细菌感染', '手术治疗']</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>无名</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>2016</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>临床医学</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>45485.32162978009</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>45485.32178731482</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
           <t>{'de2f24bd946e4c3fa80047d6877f557b': [Message(name='医生', role='user', content='你好', finish_reason=None, meta=None, function_call=None), Message(name='患者', role='assistant', content='大夫，你好', finish_reason=None, meta=None, function_call=None)], '5b90fa5b76f0425aab4413efd9d3c257': [Message(name='医生', role='user', content='你好', finish_reason=None, meta=None, function_call=None), Message(name='患者', role='assistant', content='大夫，你好', finish_reason=None, meta=None, function_call=None)], '37d0bb98a0194eefbecdba794fb1b42c': [Message(name='医生', role='user', content='你好', finish_reason=None, meta=None, function_call=None), Message(name='患者', role='assistant', content='大夫，你好', finish_reason=None, meta=None, function_call=None)]}</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>['大夫这是什么病啊', '这个病会死人么', '下一步该怎么治疗啊', '该病的诊断是什么', '下一步该怎么治疗', '高发的年龄段是什么', '初步诊断是什么', '此病的原因是什么', '治疗方法正确的是']</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>['乳腺增生', '会的', '药物治疗', '乳腺纤维腺瘤', '手术', '10-15岁', '乳腺炎', '细菌感染', '手术治疗']</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>['乳腺增生', '会的', '药物治疗', '乳腺纤维腺瘤', '手术', '10-15岁', '乳腺炎', '细菌感染', '手术治疗']</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>王大头</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>2016</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>临床医学</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>45485.3311170614</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>45485.33181675193</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>{'de2f24bd946e4c3fa80047d6877f557b': [Message(name='医生', role='user', content='你好', finish_reason=None, meta=None, function_call=None), Message(name='患者', role='assistant', content='大夫，你好', finish_reason=None, meta=None, function_call=None), Message(name='医生', role='user', content='哪里不舒服？', finish_reason=None, meta=None, function_call=None), Message(name='患者', role='assistant', content='乳房疼了一个月，感觉像是针扎一样。', finish_reason=None, meta=None, function_call=None)], '5b90fa5b76f0425aab4413efd9d3c257': [Message(name='医生', role='user', content='你好', finish_reason=None, meta=None, function_call=None), Message(name='患者', role='assistant', content='大夫，你好', finish_reason=None, meta=None, function_call=None), Message(name='医生', role='user', content='哪里不舒服？', finish_reason=None, meta=None, function_call=None), Message(name='患者', role='assistant', content='右乳房有硬块，3天了', finish_reason=None, meta=None, function_call=None)], '37d0bb98a0194eefbecdba794fb1b42c': [Message(name='医生', role='user', content='你好', finish_reason=None, meta=None, function_call=None), Message(name='患者', role='assistant', content='大夫，你好', finish_reason=None, meta=None, function_call=None)]}</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>['大夫这是什么病啊', '这个病会死人么', '下一步该怎么治疗啊', '该病的诊断是什么', '下一步该怎么治疗', '高发的年龄段是什么', '初步诊断是什么', '此病的原因是什么', '治疗方法正确的是']</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>['乳腺增生', '不会', '药物治疗', '乳腺纤维腺瘤', '手术', '20-25岁', '乳腺炎', '细菌感染', '手术治疗']</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>['乳腺增生', '不会', '药物治疗', '乳腺纤维腺瘤', '手术', '20-25岁', '乳腺炎', '细菌感染', '手术治疗']</t>
         </is>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -663,10 +663,10 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>45485.3311170614</v>
+        <v>45485.33111706019</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>45485.33181675193</v>
+        <v>45485.33181674768</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -686,6 +686,47 @@
       <c r="I6" t="inlineStr">
         <is>
           <t>['乳腺增生', '不会', '药物治疗', '乳腺纤维腺瘤', '手术', '20-25岁', '乳腺炎', '细菌感染', '手术治疗']</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>无名</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>2016</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>临床医学</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>45488.67577919331</v>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>45488.67769273684</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>{'5b90fa5b76f0425aab4413efd9d3c257': [{'role': 'user', 'content': '你好'}, {'role': 'assistant', 'content': '大夫，你好'}, {'role': 'user', 'content': '哪里不舒服？'}, {'role': 'assistant', 'content': '乳房有肿块，3天了'}, {'role': 'user', 'content': '哪一侧疼痛呢？'}, {'role': 'assistant', 'content': '右侧乳房疼'}, {'role': 'user', 'content': '哪侧有肿块呢？'}, {'role': 'assistant', 'content': '也是右侧乳房'}], '37d0bb98a0194eefbecdba794fb1b42c': [{'role': 'user', 'content': '你好'}, {'role': 'assistant', 'content': '大夫，你好'}, {'role': 'user', 'content': '哪里不舒服？'}, {'role': 'assistant', 'content': '左侧乳房疼，越来越厉害了。'}], 'de2f24bd946e4c3fa80047d6877f557b': [{'role': 'user', 'content': '你好'}, {'role': 'assistant', 'content': '大夫，你好'}]}</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>['该病的诊断是什么', '下一步该怎么治疗', '高发的年龄段是什么', '初步诊断是什么', '此病的原因是什么', '治疗方法正确的是', '大夫这是什么病啊', '这个病会死人么', '下一步该怎么治疗啊']</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>['乳腺纤维腺瘤', '手术', '20-25岁', '乳腺炎', '细菌感染', '手术治疗', '乳腺增生', '不会', '药物治疗']</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>['乳腺纤维腺瘤', '手术', '20-25岁', '乳腺炎', '细菌感染', '手术治疗', '乳腺增生', '会的', '药物治疗']</t>
         </is>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -704,10 +704,10 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45488.67577919331</v>
+        <v>45488.67577918981</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>45488.67769273684</v>
+        <v>45488.67769273148</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -727,6 +727,47 @@
       <c r="I7" t="inlineStr">
         <is>
           <t>['乳腺纤维腺瘤', '手术', '20-25岁', '乳腺炎', '细菌感染', '手术治疗', '乳腺增生', '会的', '药物治疗']</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>无名</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>2016</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>临床医学</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>45492.72816869082</v>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>45492.73157156045</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>{'5b90fa5b76f0425aab4413efd9d3c257': [{'role': 'user', 'content': '你好'}, {'role': 'assistant', 'content': '大夫，你好'}], 'de2f24bd946e4c3fa80047d6877f557b': [{'role': 'user', 'content': '你好'}, {'role': 'assistant', 'content': '大夫，你好'}], '37d0bb98a0194eefbecdba794fb1b42c': [{'role': 'user', 'content': '你好'}, {'role': 'assistant', 'content': '大夫，你好'}, {'role': 'user', 'content': '你好'}, {'role': 'assistant', 'content': '我的乳房还是好疼啊，有什么办法缓解吗？'}, {'role': 'user', 'content': '哪里不舒服？'}, {'role': 'assistant', 'content': '就是左乳房疼，都一个星期了，越来越重。'}]}</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>['该病的诊断是什么', '下一步该怎么治疗', '高发的年龄段是什么', '大夫这是什么病啊', '这个病会死人么', '下一步该怎么治疗啊', '初步诊断是什么', '此病的原因是什么', '治疗方法正确的是']</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>['乳腺纤维腺瘤', '手术', '20-25岁', '乳腺增生', '不会', '药物治疗', '乳腺炎', '细菌感染', '手术治疗']</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>['乳腺纤维腺瘤', '手术', '20-25岁', '乳腺增生', '不会', '手术治疗', '乳腺腺瘤', '外伤导致', '抗菌药物']</t>
         </is>
       </c>
     </row>
